--- a/data/informacoes_hospedagens.xlsx
+++ b/data/informacoes_hospedagens.xlsx
@@ -453,748 +453,748 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loft em São Paulo </t>
+          <t>Apartamento em Vila Mariana</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29343801?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/635531228712207362?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$110</t>
+          <t>R$145</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apartamento em República</t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/49257077?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/676043389801145764?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$104</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apartamento em Consolação</t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/21876764?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/31071726?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$199</t>
+          <t>R$135</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
+          <t>Condomínio em Consolação</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53374205?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/45378824?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$189</t>
+          <t>R$122</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/39942420?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/47861606?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$171</t>
+          <t>R$217</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Loft em Bela Vista</t>
+          <t>Loft em Campo Belo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/42804708?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/51867424?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$130</t>
+          <t>R$238</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45277080?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/46900737?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$155</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apartamento em Santana</t>
+          <t>Apartamento em Bela Vista</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29159276?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/645693983019570862?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$140</t>
+          <t>R$115</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim Paulista</t>
+          <t>Apartamento em Centro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53020738?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/25952066?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$205</t>
+          <t>R$81</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/34652262?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/658520658730914719?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R$224</t>
+          <t>R$116</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apartamento em Campos Elíseos</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/629634173200133621?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/52350961?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R$118</t>
+          <t>R$165</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Apartamento em Liberdade</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/17667161?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/615778058089861174?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R$306</t>
+          <t>R$165</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/11737858?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/53360995?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R$161</t>
+          <t>R$223</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Apartamento em Campo Belo</t>
+          <t>Apartamento em Vila Madalena</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/48314392?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/47772774?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R$222</t>
+          <t>R$146</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Condomínio em Bela Vista</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53913465?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/46679402?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R$229</t>
+          <t>R$125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Perdizes</t>
+          <t>Apartamento em Bom Retiro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/578129623245209377?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/37018221?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R$97</t>
+          <t>R$89</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Loft em Campos Elíseos</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/44571794?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/53321869?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R$212</t>
+          <t>R$116</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t xml:space="preserve">Apartamento em República, São Paulo </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/36594447?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/42447016?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R$217</t>
+          <t>R$183</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim America</t>
+          <t>Apartamento em Pinheiros</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/592725537426468409?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/36602849?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R$233</t>
+          <t>R$218</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
+          <t>Apartamento em Bela Vista</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45362433?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/623385966066037326?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=5524c77f-76c5-4e79-bc31-81f3a0051327</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R$141</t>
+          <t>R$182</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loft em São Paulo </t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29343801?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/660267624171308900?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R$110</t>
+          <t>R$123</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Apartamento em República</t>
+          <t>Condomínio em Sé</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/49257077?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/49226657?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$92</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apartamento em Consolação</t>
+          <t>Condomínio em República</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/21876764?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/51318223?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R$199</t>
+          <t>R$134</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
+          <t>Loft em Campo Belo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53374205?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/51170414?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>R$189</t>
+          <t>R$238</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
+          <t>Apartamento em Vila Mariana</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/39942420?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/635531620137525815?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R$171</t>
+          <t>R$164</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Loft em Bela Vista</t>
+          <t>Apartamento em República</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/42804708?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/565048416081357143?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R$130</t>
+          <t>R$129</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
+          <t>Quarto inteiro em Pinheiros</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45277080?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/43578692?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$97</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Apartamento em Santana</t>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29159276?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/45240572?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R$140</t>
+          <t>R$123</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim Paulista</t>
+          <t>Apartamento em Vila Buarque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53020738?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/32281986?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R$205</t>
+          <t>R$125</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Condomínio em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/34652262?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/50747999?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>R$224</t>
+          <t>R$114</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Apartamento em Campos Elíseos</t>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/629634173200133621?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/47887184?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R$118</t>
+          <t>R$115</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Quarto inteiro em São Paulo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/17667161?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/5039670?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R$306</t>
+          <t>R$72</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/11737858?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/49073218?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R$161</t>
+          <t>R$119</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Apartamento em Campo Belo</t>
+          <t>Loft em República</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/48314392?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/649132158169929184?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R$222</t>
+          <t>R$126</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53913465?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/46895871?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R$229</t>
+          <t>R$186</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Perdizes</t>
+          <t>Quarto inteiro em São Paulo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/578129623245209377?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/47074728?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R$97</t>
+          <t>R$87</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Apartamento em República</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/44571794?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/562128528789433590?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R$212</t>
+          <t>R$169</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Quarto de hotel em Consolação</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/36594447?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/52488289?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R$217</t>
+          <t>R$151</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim America</t>
+          <t>Apartamento em Bela Vista</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/592725537426468409?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/628821070650582747?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R$233</t>
+          <t>R$152</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45362433?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/13952468?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=ed363e42-81c1-4215-b613-21ea2d7dbf76</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R$141</t>
+          <t>R$106</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loft em São Paulo </t>
+          <t>Apartamento em Bela Vista</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29343801?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/45271070?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R$110</t>
+          <t>R$157</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Apartamento em República</t>
+          <t>Loft em República</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/49257077?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/51210778?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$179</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Apartamento em Consolação</t>
+          <t>Condomínio em São Paulo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/21876764?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/32166447?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R$199</t>
+          <t>R$122</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
+          <t>Apartamento em Sé</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53374205?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/565147090310184978?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R$189</t>
+          <t>R$109</t>
         </is>
       </c>
     </row>
@@ -1206,267 +1206,267 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/39942420?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/43957842?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R$171</t>
+          <t>R$126</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Loft em Bela Vista</t>
+          <t>Condomínio em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/42804708?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/52923860?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R$130</t>
+          <t>R$135</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45277080?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/42452357?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R$128</t>
+          <t>R$137</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apartamento em Santana</t>
+          <t>Apartamento em São Paulo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/29159276?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/31059459?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>R$140</t>
+          <t>R$141</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim Paulista</t>
+          <t>Loft em Campos Elíseos</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53020738?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/54063975?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R$205</t>
+          <t>R$131</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Apartamento em Campos Elíseos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/34652262?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/45911538?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>R$224</t>
+          <t>R$147</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Apartamento em Campos Elíseos</t>
+          <t>Quarto de hotel em Centro Histórico de São Paulo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/629634173200133621?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/649408718172778042?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>R$118</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Condomínio em Consolação</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/17667161?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/29124758?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>R$306</t>
+          <t>R$162</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Quarto inteiro em Consolação</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/11737858?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/38013603?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R$161</t>
+          <t>R$173</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Apartamento em Campo Belo</t>
+          <t>Quarto inteiro em Bela Vista</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/48314392?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/42999065?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>R$222</t>
+          <t>R$114</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Quarto inteiro em Vila Clementino</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53913465?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/50028883?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>R$229</t>
+          <t>R$80</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Perdizes</t>
+          <t>Loft em República</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/578129623245209377?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/37775640?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R$97</t>
+          <t>R$139</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
+          <t>Quarto inteiro em Barra Funda</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/44571794?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/588523308171095897?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>R$212</t>
+          <t>R$69</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
+          <t>Loft em Brás</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/36594447?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/52422240?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>R$217</t>
+          <t>R$127</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim America</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/592725537426468409?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/53729959?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>R$233</t>
+          <t>R$156</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
+          <t>Apartamento em Consolação</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/45362433?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=46bba14f-0484-4524-a01a-1ab0e5148097</t>
+          <t>www.airbnb.com.br/rooms/53141438?check_in=2022-07-25&amp;check_out=2022-07-29&amp;previous_page_section_name=1000&amp;federated_search_id=309f9b46-eb14-4451-b0d0-2b9710fac6ed</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>R$141</t>
+          <t>R$248</t>
         </is>
       </c>
     </row>
